--- a/TaskScheduler.xlsx
+++ b/TaskScheduler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c89c657d650df7/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\RPA\Project RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{15A86DFD-506E-4E91-816D-F66D3BE1FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA4DF59-A95D-4666-8530-DA1417226DC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6779D-8D99-4D0A-9DF2-42B486ACCBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C4E2BA8-4286-43E0-8FCB-17CD9C919D93}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -36,37 +36,34 @@
     <t>Acțiune</t>
   </si>
   <si>
+    <t>Backup fișiere</t>
+  </si>
+  <si>
+    <t>Curățare folder temporar</t>
+  </si>
+  <si>
+    <t>Rulează script PowerShell</t>
+  </si>
+  <si>
+    <t>Deschide aplicația Notepad</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Șterge fișiere</t>
+  </si>
+  <si>
+    <t>Copiază fișiere</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>Notepad</t>
+  </si>
+  <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Backup fișiere</t>
-  </si>
-  <si>
-    <t>Raport email</t>
-  </si>
-  <si>
-    <t>Curățare folder temporar</t>
-  </si>
-  <si>
-    <t>Rulează script PowerShell</t>
-  </si>
-  <si>
-    <t>Deschide aplicația Notepad</t>
-  </si>
-  <si>
-    <t>Copiază fișierele din folderul X în Y</t>
-  </si>
-  <si>
-    <t>Trimite raportul zilnic</t>
-  </si>
-  <si>
-    <t>Șterge fișierele temporare mai vechi de 7 zile</t>
-  </si>
-  <si>
-    <t>Rulează scriptul DailyCheck.ps1</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -429,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,12 +446,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>0.375</v>
@@ -463,64 +460,55 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskScheduler.xlsx
+++ b/TaskScheduler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\RPA\Project RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasil\Documents\UiPath\proiectRPA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6779D-8D99-4D0A-9DF2-42B486ACCBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11A46F-5C75-4329-98A1-128C4EE6FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C4E2BA8-4286-43E0-8FCB-17CD9C919D93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C4E2BA8-4286-43E0-8FCB-17CD9C919D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -127,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,13 +429,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -488,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
